--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Araucania.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Araucania.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R74e280519e1241a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R9eae3f1ea2c24d56"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79009</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1587963.507651</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6804485.9076305</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33593.490765</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1659672.215335</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7081284.4375838</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35475.533764</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79661</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1766678.2502102</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7407271.8083109</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36859.099765</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1694617.5218557</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7287533.3297587</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36010.172894</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80544</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1655171.2193956</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7248228.7614555</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39543.497936</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80899</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1685030.9426692</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7293803.9214092</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39838.782465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81410</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1632500.783884</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7220235.1209239</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36841.613934</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81870</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1602656.5456211</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7135951.59153</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39037.221356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82200</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1629382.6962287</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6859425.7579092</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36655.363101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82790</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1590939.1583403</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7131586.6424657</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40283.223996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83232</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1566375.9618055</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6996840.2630137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40550.91747</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83607</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1616476.7878646</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7205036.1885245</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44006.942459</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1634894.7627508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7403868.1112637</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45457.773678</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84131</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1737924.6986485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7401216.1303155</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47300.377591</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84633</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1828621.0876253</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7677513.1848275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42324.97685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85219</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1733868.6684659</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8336771.8492392</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47019.508769</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86793</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1683774.2666459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7570647.517337</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50298.471711</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87476</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1703810.6549453</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7734949.6255201</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46797.071713</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88172</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1638042.3295717</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7781058.3736111</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47027.714957999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88753</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1607014.6194945</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7730991.3536754</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48718.216922</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89395</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1638473.9333743</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7819641.4072022</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48634.949434</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89981</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1611317.1435747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7990384.5913528</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49852.995236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90570</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1612202.1800265</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8432219.8153846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50344.296953</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1676881.4135902</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9232076.1047486</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57095.96408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1727711.3331547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9404147.4261838</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58188.533788</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91831</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1889069.2251745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9102013.1715481</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60008.812716</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92479</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2014643.7708777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8962416.8370473</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58705.683155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93143</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1915406.1796592</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9322470.5206847</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59997.64708</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93786</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1870923.3979272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10091448.409415</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61949.562237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94441</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1906460.0055802</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10736326.387464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59385.574077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94999</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1876557.641733</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11444178.722222</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62925.060278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1816283.6364444</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12288048.941595</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59115.977296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96318</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1820069.0378537</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11993856.624466</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63844.478975</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96937</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1788795.037024</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11737319.324749</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65074.065547</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97645</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1768623.8232679</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11395195.770655</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61190.099688</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1817598.9024912</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12305651.567988</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71030.183044</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98572</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1876422.1885018</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13036044.035511</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71170.563394</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98979</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1965530.9922003</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14921280.929178</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70705.963692</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99543</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2050215.5508071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17923777.695774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73419.532167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1972966.0097822</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17926536.195224</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74477.177005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100850</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1958724.2553891</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18716534.558204</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76166.809015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101353</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1958341.8298126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18813803.026573</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76680.239543</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101933</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1912273.8676287</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18212251.146853</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76334.777656</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102590</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1878987.6574227</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18824991.146853</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76281.269133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103081</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1902306.4308068</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18115490.15126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80483.218077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103635</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1883631.1017513</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17012006.861538</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78370.596993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104259</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1830502.903826</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17008718.302777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76480.481632</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104795</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1889639.1211412</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17026173.718663</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85945.589384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105204</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1935500.7599235</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16829212.891816</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83350.255834</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105568</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1999547.2576727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17262048.964038</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85988.532392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106448</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2051354.2704888</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17343386.28453</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85278.416925</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106961</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2006451.2289713</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17055870.280386</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86999.345777</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107694</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1979606.4571749</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16289183.598901</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89152.096672</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108204</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1988727.0718642</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15821730.625514</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91900.900299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108853</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1920876.965954</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15339981.779452</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85224.678773</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110223</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1858476.6001197</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15155166.524523</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90109.080537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110773</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1895177.7399185</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15362852.266846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93102.718055</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111482</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1871350.0243178</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15527995.451655</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89533.060406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1830844.1810837</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14510361.494086</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93330.81403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112688</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1903805.5254596</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12914787.48</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104175.06864</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113314</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1920025.5309582</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12020184.867852</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99194.657447</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113859</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1990972.7762056</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11870841.653701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103446.728617</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114630</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2092574.7711855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12803316.980148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108586.482517</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115342</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2044354.6930519</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12734254.554054</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101231.46343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116060</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2009401.1956057</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>822</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11995144.583941</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108123.774072</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116690</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1968060.7707687</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>829</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12054956.84439</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111226.188474</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>117365</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1919375.7943509</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>833</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11248274.340936</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104225.105516</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1851541.5613242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11484862.041866</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111076.208767</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118824</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1890765.4237359</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>838</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10753557.714797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109881.680996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119919</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1834770.7605216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10429030.243243</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110509.962418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119334</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1805420.4587879</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10190952.687426</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110522.129133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121448</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1858177.3204828</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10110886.819883</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120919.869626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122270</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1856625.4400016</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>858</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9893597.1771561</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119618.183472</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122946</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1931635.1457631</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9874780.1695702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123643.894661</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123941</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2043228.9426259</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>866</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9751774.2863741</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127614.527401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125017</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1979613.470256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>868</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10080707.443548</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123108.744054</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126120</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1959954.1378449</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9705864.3947368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130954.204065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126903</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1959466.1487356</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>877</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9569175.5062713</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130424.786725</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127956</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1886476.2769389</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9560850.9500567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124567.990055</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128890</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1858902.0380789</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9292855.8871331</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133017.463711</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129436</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1912056.6351556</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14293683.536231</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125380.7662</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130047</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1906727.6836605</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14296357.194774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133625.956299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1933658.2945265</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15528761.851598</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133122.501375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131199</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2006120.3219079</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17039038.183006</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>142322.127971</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131784</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1996662.2940341</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15667944.882978</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>149567.937484</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2101468.7550745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16535841.010352</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>153323.090175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132543</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2255269.523166</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20020643.108163</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>159128.493375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132161</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2375499.9551304</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20828212.434607</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>183511.843787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2538804.0517886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19402573.074803</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>190441.165823</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132034</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2709606.1919505</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18804865.273946</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>185831.882008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2800728.0427674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20595177.013035</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>206219.893151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132984</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2957027.8009159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19442218.740143</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>354022.68662</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133579</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3175911.7304067</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24294216.266897</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>343637.391589</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>134274</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3211006.0346157</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23640394.799663</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>321840.421792</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135102</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3194257.904065</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24304260.732484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>300069.063102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135980</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3282870.3809751</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22735113.942724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>436326.351932</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>412043.097377</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>393700.183848</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>390025.610278</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>394308.087345</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>504638.48864</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>480187.220016</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>478153.836778</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>461332.118448</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>458263.806735</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>441762.870625</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>429284.880924</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>435116.393086</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>404261.981264</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>391053.370151</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>371748.761671</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>363222.850548</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>341418.119203</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>330058.825864</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>317208.697701</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>307847.321571</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>306618.394341</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>292953.364503</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>276980.870945</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>286348.237049</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>276416.477047</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>280116.548285</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>281763.8885</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>281723.867407</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>267908.928575</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>272261.583964</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>252839.451578</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>256833.814303</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>258259.344251</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>250546.693687</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>249577.036046</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>267875.056323</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>262290.786137</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>269768.089205</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>269436.810349</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>266387.139369</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>272038.19984</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>273076.695411</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>259646.715277</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
